--- a/TeamSchedule.xlsx
+++ b/TeamSchedule.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Foothill\Spring Quarter\CS 1A\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35900" yWindow="-380" windowWidth="25620" windowHeight="21560" tabRatio="500"/>
+    <workbookView xWindow="-35904" yWindow="-384" windowWidth="25620" windowHeight="21564" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130406" concurrentCalc="0"/>
+  <calcPr calcId="130406"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -151,6 +156,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>before submitting Task</t>
     </r>
@@ -158,6 +164,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -167,6 +174,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -174,6 +182,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. If you want to, you may add rows with additional jobs that your team </t>
     </r>
@@ -285,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -294,38 +303,50 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -418,6 +439,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -743,78 +772,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="18">
+      <c r="B1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>6</v>
@@ -829,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -852,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
         <v>51</v>
@@ -863,7 +894,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -871,7 +902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -882,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -893,7 +924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
@@ -901,7 +932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -912,7 +943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -923,12 +954,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
@@ -939,7 +970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21</v>
       </c>
@@ -950,7 +981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>22</v>
       </c>
@@ -961,7 +992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
@@ -972,7 +1003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24</v>
       </c>
@@ -983,7 +1014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>25</v>
       </c>
@@ -994,7 +1025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>26</v>
       </c>
@@ -1005,7 +1036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27</v>
       </c>
@@ -1019,7 +1050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>28</v>
       </c>
@@ -1030,7 +1061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>29</v>
       </c>
@@ -1041,7 +1072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30</v>
       </c>
@@ -1052,7 +1083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>31</v>
       </c>
@@ -1063,7 +1094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>32</v>
       </c>
@@ -1074,7 +1105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>33</v>
       </c>
@@ -1085,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>34</v>
       </c>
@@ -1096,7 +1127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>35</v>
       </c>
@@ -1110,12 +1141,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50</v>
       </c>
@@ -1126,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>51</v>
       </c>
@@ -1137,7 +1168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>52</v>
       </c>
@@ -1148,7 +1179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>53</v>
       </c>
@@ -1162,12 +1193,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>54</v>
       </c>
@@ -1178,7 +1209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>55</v>
       </c>
@@ -1189,7 +1220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>56</v>
       </c>
@@ -1200,7 +1231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>57</v>
       </c>
@@ -1211,7 +1242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -1222,7 +1253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>59</v>
       </c>
@@ -1233,7 +1264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>60</v>
       </c>
@@ -1244,7 +1275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>61</v>
       </c>
@@ -1255,7 +1286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>62</v>
       </c>
@@ -1266,7 +1297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>63</v>
       </c>
@@ -1277,7 +1308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>64</v>
       </c>
@@ -1288,22 +1319,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -1311,7 +1342,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
